--- a/posesiones/1485996.xlsx
+++ b/posesiones/1485996.xlsx
@@ -1811,10 +1811,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1955,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2005,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>15</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2105,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>16</v>
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2255,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R12">
         <v>17</v>
@@ -2308,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2552,7 +2552,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R18">
         <v>42</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2652,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R20">
         <v>11</v>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2896,7 +2896,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R25">
         <v>14</v>
@@ -2949,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2999,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R27">
         <v>9</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3099,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3243,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R32">
         <v>20</v>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3396,7 +3396,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R35">
         <v>18</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3496,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R37">
         <v>13</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3596,7 +3596,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R39">
         <v>10</v>
@@ -3649,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3699,7 +3699,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R41">
         <v>14</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3799,7 +3799,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R43">
         <v>20</v>
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R47">
         <v>13</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4096,7 +4096,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R49">
         <v>4</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4196,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R51">
         <v>23</v>
@@ -4249,7 +4249,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R52">
         <v>15</v>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R58">
         <v>42</v>
@@ -4590,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4640,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R60">
         <v>6</v>
@@ -4693,7 +4693,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R61">
         <v>18</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4796,7 +4796,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R63">
         <v>8</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4896,7 +4896,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4946,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R66">
         <v>12</v>
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5046,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R68">
         <v>17</v>
@@ -5099,7 +5099,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R69">
         <v>20</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5249,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5534,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5631,7 +5631,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R80">
         <v>29</v>
@@ -5684,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5734,7 +5734,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R82">
         <v>13</v>
@@ -5787,7 +5787,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R83">
         <v>16</v>
@@ -5840,7 +5840,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R84">
         <v>10</v>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5937,7 +5937,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5987,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6037,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R88">
         <v>30</v>
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6134,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6184,7 +6184,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R91">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6284,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6334,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6428,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6522,7 +6522,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6569,7 +6569,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6663,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6710,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6760,7 +6760,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6810,7 +6810,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R104">
         <v>18</v>
@@ -6863,7 +6863,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R105">
         <v>15</v>
@@ -6916,7 +6916,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R106">
         <v>23</v>
@@ -6966,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7016,7 +7016,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R108">
         <v>24</v>
@@ -7060,10 +7060,10 @@
         <v>1</v>
       </c>
       <c r="P109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q109">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7110,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7157,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7198,10 +7198,10 @@
         <v>1</v>
       </c>
       <c r="P112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q112">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7251,7 +7251,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R113">
         <v>19</v>
@@ -7301,7 +7301,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7351,7 +7351,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R115">
         <v>22</v>
@@ -7401,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7451,7 +7451,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R117">
         <v>19</v>
@@ -7504,7 +7504,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R118">
         <v>4</v>
@@ -7554,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7604,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7698,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7839,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7936,7 +7936,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R127">
         <v>24</v>
@@ -7986,7 +7986,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8036,7 +8036,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R129">
         <v>18</v>
@@ -8089,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8139,7 +8139,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R131">
         <v>13</v>
@@ -8189,7 +8189,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8236,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8283,7 +8283,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8424,7 +8424,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8474,7 +8474,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R138">
         <v>15</v>
@@ -8524,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8574,7 +8574,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R140">
         <v>10</v>
@@ -8624,7 +8624,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8674,7 +8674,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R142">
         <v>20</v>
@@ -8724,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8821,7 +8821,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8915,7 +8915,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -8962,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9009,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9059,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R150">
         <v>7</v>
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9156,7 +9156,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9203,7 +9203,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9250,7 +9250,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9300,7 +9300,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R155">
         <v>19</v>
@@ -9350,7 +9350,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9400,7 +9400,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R157">
         <v>11</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9500,7 +9500,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R159">
         <v>29</v>
@@ -9553,7 +9553,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R161">
         <v>11</v>
@@ -9656,7 +9656,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R162">
         <v>20</v>
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9753,7 +9753,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9800,7 +9800,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9847,7 +9847,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9894,7 +9894,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9941,7 +9941,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10041,7 +10041,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R170">
         <v>25</v>
@@ -10094,7 +10094,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R171">
         <v>17</v>
@@ -10147,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10197,7 +10197,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R173">
         <v>8</v>
@@ -10244,7 +10244,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10291,7 +10291,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10338,7 +10338,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10388,7 +10388,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R177">
         <v>20</v>
@@ -10438,7 +10438,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10485,7 +10485,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10535,7 +10535,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R180">
         <v>14</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10638,7 +10638,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R182">
         <v>13</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10738,7 +10738,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R184">
         <v>16</v>
@@ -10791,7 +10791,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10885,7 +10885,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10932,7 +10932,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -10982,7 +10982,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R189">
         <v>12</v>
@@ -11035,7 +11035,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R190">
         <v>4</v>
@@ -11088,7 +11088,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11185,7 +11185,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11279,7 +11279,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11326,7 +11326,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11376,7 +11376,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R197">
         <v>20</v>
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11473,7 +11473,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R199">
         <v>19</v>
@@ -11523,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11573,7 +11573,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R201">
         <v>18</v>
@@ -11626,7 +11626,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R202">
         <v>21</v>
@@ -11679,7 +11679,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R203">
         <v>28</v>
@@ -11729,7 +11729,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11776,7 +11776,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11826,7 +11826,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R206">
         <v>32</v>
@@ -11876,7 +11876,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11920,7 +11920,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -11967,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12014,7 +12014,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12061,7 +12061,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12108,7 +12108,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12155,7 +12155,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12202,7 +12202,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12249,7 +12249,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12296,7 +12296,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12343,7 +12343,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12487,7 +12487,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R220">
         <v>14</v>
@@ -12534,7 +12534,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12581,7 +12581,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12628,7 +12628,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12675,7 +12675,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12722,7 +12722,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12772,7 +12772,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R226">
         <v>33</v>
@@ -12825,7 +12825,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12872,7 +12872,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12922,7 +12922,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -12969,7 +12969,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13016,7 +13016,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13063,7 +13063,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13113,7 +13113,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R233">
         <v>18</v>
@@ -13166,7 +13166,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13216,7 +13216,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R235">
         <v>6</v>
@@ -13260,10 +13260,10 @@
         <v>1</v>
       </c>
       <c r="P236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q236">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13310,7 +13310,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13357,7 +13357,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13404,7 +13404,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13451,7 +13451,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13498,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13545,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13592,7 +13592,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13639,7 +13639,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13686,7 +13686,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13733,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13780,7 +13780,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13827,7 +13827,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13868,10 +13868,10 @@
         <v>1</v>
       </c>
       <c r="P249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q249">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -13921,7 +13921,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R250">
         <v>16</v>
@@ -13971,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14021,7 +14021,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="R252">
         <v>5</v>
@@ -14071,7 +14071,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14121,7 +14121,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R254">
         <v>20</v>
@@ -14174,7 +14174,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R255">
         <v>20</v>
@@ -14227,7 +14227,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14277,7 +14277,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R257">
         <v>13</v>
@@ -14327,7 +14327,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14374,7 +14374,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14418,7 +14418,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14468,7 +14468,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14518,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R262">
         <v>21</v>
@@ -14571,7 +14571,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14621,7 +14621,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R264">
         <v>6</v>
@@ -14674,7 +14674,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R265">
         <v>17</v>
@@ -14724,7 +14724,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14774,7 +14774,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R267">
         <v>18</v>
@@ -14827,7 +14827,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14874,7 +14874,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -14921,7 +14921,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -14968,7 +14968,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15018,7 +15018,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R272">
         <v>5</v>
@@ -15068,7 +15068,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15118,7 +15118,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15168,7 +15168,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R275">
         <v>26</v>
@@ -15221,7 +15221,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15271,7 +15271,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R277">
         <v>11</v>
@@ -15321,7 +15321,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15368,7 +15368,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15418,7 +15418,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R280">
         <v>22</v>
@@ -15468,7 +15468,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15515,7 +15515,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15565,7 +15565,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R283">
         <v>19</v>
@@ -15615,7 +15615,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15662,7 +15662,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15709,7 +15709,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15759,7 +15759,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R287">
         <v>8</v>
@@ -15812,7 +15812,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R288">
         <v>16</v>
@@ -15862,7 +15862,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15909,7 +15909,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -15959,7 +15959,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16006,7 +16006,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16053,7 +16053,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16100,7 +16100,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16147,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16197,7 +16197,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R296">
         <v>40</v>
@@ -16250,7 +16250,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R297">
         <v>16</v>
@@ -16303,7 +16303,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16353,7 +16353,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R299">
         <v>7</v>
@@ -16406,7 +16406,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16456,7 +16456,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R301">
         <v>3</v>
@@ -16506,7 +16506,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16553,7 +16553,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16600,7 +16600,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16647,7 +16647,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16697,7 +16697,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R306">
         <v>0</v>
@@ -16750,7 +16750,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R307">
         <v>22</v>
@@ -16800,7 +16800,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16850,7 +16850,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R309">
         <v>22</v>
@@ -16900,7 +16900,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -16950,7 +16950,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R311">
         <v>9</v>
@@ -17003,7 +17003,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17053,7 +17053,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R313">
         <v>4</v>
@@ -17103,7 +17103,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17147,7 +17147,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17194,7 +17194,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17241,7 +17241,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17291,7 +17291,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R318">
         <v>15</v>
@@ -17344,7 +17344,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R319">
         <v>13</v>
@@ -17394,7 +17394,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17441,7 +17441,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17488,7 +17488,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17535,7 +17535,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17582,7 +17582,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17629,7 +17629,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17676,7 +17676,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17726,7 +17726,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R327">
         <v>30</v>
@@ -17779,7 +17779,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R328">
         <v>25</v>
@@ -17832,7 +17832,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17882,7 +17882,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R330">
         <v>13</v>
@@ -17932,7 +17932,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -17982,7 +17982,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R332">
         <v>7</v>
@@ -18032,7 +18032,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18079,7 +18079,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18126,7 +18126,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18173,7 +18173,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18220,7 +18220,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18267,7 +18267,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18314,7 +18314,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18361,7 +18361,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18408,7 +18408,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18455,7 +18455,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18505,7 +18505,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R343">
         <v>13</v>
@@ -18558,7 +18558,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R344">
         <v>16</v>
@@ -18611,7 +18611,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18661,7 +18661,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R346">
         <v>22</v>
@@ -18711,7 +18711,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18758,7 +18758,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18805,7 +18805,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18855,7 +18855,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R350">
         <v>0</v>
@@ -18908,7 +18908,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R351">
         <v>10</v>
@@ -18961,7 +18961,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19011,7 +19011,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R353">
         <v>6</v>
@@ -19058,7 +19058,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19108,7 +19108,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R355">
         <v>17</v>
@@ -19161,7 +19161,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R356">
         <v>16</v>
@@ -19211,7 +19211,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19258,7 +19258,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19308,7 +19308,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19358,7 +19358,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R360">
         <v>25</v>
@@ -19402,10 +19402,10 @@
         <v>1</v>
       </c>
       <c r="P361" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q361">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19452,7 +19452,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19499,7 +19499,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19540,10 +19540,10 @@
         <v>1</v>
       </c>
       <c r="P364" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q364">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19590,7 +19590,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19640,7 +19640,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19690,7 +19690,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R367">
         <v>25</v>
@@ -19743,7 +19743,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19790,7 +19790,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19837,7 +19837,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19884,7 +19884,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -19931,7 +19931,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -19981,7 +19981,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="R373">
         <v>21</v>
@@ -20031,7 +20031,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20078,7 +20078,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20128,7 +20128,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="R376">
         <v>20</v>
@@ -20178,7 +20178,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20225,7 +20225,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20275,7 +20275,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20325,7 +20325,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R380">
         <v>7</v>
@@ -20372,7 +20372,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20419,7 +20419,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20466,7 +20466,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20513,7 +20513,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20560,7 +20560,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20610,7 +20610,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R386">
         <v>8</v>
@@ -20663,7 +20663,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R387">
         <v>14</v>
@@ -20713,7 +20713,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20763,7 +20763,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R389">
         <v>6</v>
@@ -20813,7 +20813,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20863,7 +20863,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R391">
         <v>8</v>
@@ -20913,7 +20913,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -20963,7 +20963,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R393">
         <v>15</v>
@@ -21016,7 +21016,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21066,7 +21066,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R395">
         <v>6</v>
@@ -21116,7 +21116,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21160,7 +21160,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21207,7 +21207,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21254,7 +21254,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21304,7 +21304,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R400">
         <v>21</v>
@@ -21357,7 +21357,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R401">
         <v>18</v>
@@ -21407,7 +21407,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21457,7 +21457,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R403">
         <v>4</v>
@@ -21507,7 +21507,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21554,7 +21554,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21604,7 +21604,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R406">
         <v>32</v>
@@ -21654,7 +21654,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21704,7 +21704,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R408">
         <v>13</v>
@@ -21757,7 +21757,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21804,7 +21804,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21851,7 +21851,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21898,7 +21898,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -21945,7 +21945,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -21995,7 +21995,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R414">
         <v>26</v>
@@ -22048,7 +22048,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R415">
         <v>11</v>
@@ -22098,7 +22098,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22148,7 +22148,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22198,7 +22198,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R418">
         <v>29</v>
@@ -22251,7 +22251,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22298,7 +22298,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22345,7 +22345,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22392,7 +22392,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22439,7 +22439,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22486,7 +22486,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22533,7 +22533,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22580,7 +22580,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22630,7 +22630,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22677,7 +22677,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22724,7 +22724,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22821,7 +22821,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R431">
         <v>19</v>
@@ -22874,7 +22874,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22921,7 +22921,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -22968,7 +22968,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23015,7 +23015,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23065,7 +23065,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R436">
         <v>19</v>
@@ -23118,7 +23118,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23165,7 +23165,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23212,7 +23212,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23259,7 +23259,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23353,7 +23353,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23403,7 +23403,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R443">
         <v>17</v>
@@ -23456,7 +23456,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23506,7 +23506,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R445">
         <v>14</v>
@@ -23556,7 +23556,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23606,7 +23606,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R447">
         <v>17</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23706,7 +23706,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R449">
         <v>18</v>
@@ -23756,7 +23756,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23806,7 +23806,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R451">
         <v>21</v>
@@ -23859,7 +23859,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R452">
         <v>21</v>
@@ -23912,7 +23912,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -23959,7 +23959,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24006,7 +24006,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24053,7 +24053,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24100,7 +24100,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24194,7 +24194,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24241,7 +24241,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24291,7 +24291,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R461">
         <v>10</v>
@@ -24344,7 +24344,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R462">
         <v>14</v>
@@ -24391,7 +24391,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24441,7 +24441,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R464">
         <v>14</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24541,7 +24541,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R466">
         <v>21</v>
@@ -24594,7 +24594,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24641,7 +24641,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24735,7 +24735,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24785,7 +24785,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R471">
         <v>22</v>
@@ -24835,7 +24835,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24885,7 +24885,7 @@
         <v>1</v>
       </c>
       <c r="Q473">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R473">
         <v>20</v>
@@ -24935,7 +24935,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25032,7 +25032,7 @@
         <v>1</v>
       </c>
       <c r="Q476">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R476">
         <v>25</v>
@@ -25082,7 +25082,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25132,7 +25132,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R478">
         <v>26</v>
@@ -25182,7 +25182,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25229,7 +25229,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25279,7 +25279,7 @@
         <v>1</v>
       </c>
       <c r="Q481">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R481">
         <v>7</v>
@@ -25335,7 +25335,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R482">
         <v>0</v>
@@ -25379,10 +25379,10 @@
         <v>1</v>
       </c>
       <c r="P483" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q483">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25423,7 +25423,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
